--- a/K odevzdání/4. iterace/Testování/Testovací scénář - úprava dodavatelů.xlsx
+++ b/K odevzdání/4. iterace/Testování/Testovací scénář - úprava dodavatelů.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>Název:</t>
   </si>
@@ -52,48 +54,24 @@
     <t>2.</t>
   </si>
   <si>
-    <t>3.Upravím údaje</t>
-  </si>
-  <si>
     <t>4.Tlačítkem "+" uložím</t>
   </si>
   <si>
-    <t>2.Uložení úprav</t>
-  </si>
-  <si>
     <t>3.</t>
   </si>
   <si>
     <t>4.</t>
   </si>
   <si>
-    <t>2.Zadám do okénka první písmeno nebo část názvu</t>
-  </si>
-  <si>
-    <t>3.Počkám na zobrazení shod</t>
-  </si>
-  <si>
     <t>Přidání dodavatele</t>
   </si>
   <si>
     <t>Ověření, zda se dají přidávat noví dodavatelé do správy dodavatelů</t>
   </si>
   <si>
-    <t>Informace o dodavateli</t>
-  </si>
-  <si>
     <t>1.V menu kliknu na tlačítko s obrázkem nákladního automobilu</t>
   </si>
   <si>
-    <t>3.Vyplním údaje o dodavateli</t>
-  </si>
-  <si>
-    <t>1.Ověření zda je zadán aspoň název</t>
-  </si>
-  <si>
-    <t>2.Zobrazení nového dodavatele v seznamu</t>
-  </si>
-  <si>
     <t>Zobrazení informací a editace dodavatele</t>
   </si>
   <si>
@@ -103,15 +81,6 @@
     <t>1.Dodavatel v seznamu</t>
   </si>
   <si>
-    <t>2.Nové informace</t>
-  </si>
-  <si>
-    <t>2.Dvojklikem nebo označením a kliknutím na tlačítko "lupa" vyvolám dialog s inofrmacemi</t>
-  </si>
-  <si>
-    <t>1.Ověření jména</t>
-  </si>
-  <si>
     <t>Odebrání dodavatele</t>
   </si>
   <si>
@@ -121,9 +90,6 @@
     <t>1.Dodavatele v seznamu</t>
   </si>
   <si>
-    <t>2.Kliknutím na příslušného dodavatele ho označím</t>
-  </si>
-  <si>
     <t>3.Kliknutím na tlačítko "-" ho odstraním</t>
   </si>
   <si>
@@ -133,13 +99,64 @@
     <t>Vyhledávání dodavatelů</t>
   </si>
   <si>
-    <t>Ověření, zda se správné vyhledá dodavatele v seznamu podle 1. písmena nebo části názvu</t>
-  </si>
-  <si>
-    <t>1.Seznam dodavatelů</t>
-  </si>
-  <si>
-    <t>1.Zobrazení odpovídajících dodavatelů</t>
+    <t>3.Vyplním údaje o dodavateli - Firma: Pekárna Vodkolek, Adresa: Jitrnická 25, Praha 4, 14000, Účet: 258471349/0100, IČO:123456, Telefon:222148536</t>
+  </si>
+  <si>
+    <t>1.Uložení nového dodavatele</t>
+  </si>
+  <si>
+    <t>3.Upravím údaje - Číslo telefonu nahradím za 604147034</t>
+  </si>
+  <si>
+    <t>1.Uložení úprav</t>
+  </si>
+  <si>
+    <t>2.Kliknutím na dodavatele "Nápoje Jelínek" ho označím</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ověření, zda se správné vyhledá dodavatele v seznamu podle 1. písmena </t>
+  </si>
+  <si>
+    <t>1.Zobrazení odpovídajících dodavatelů (Potraviny Goliáš)</t>
+  </si>
+  <si>
+    <t>Ověření, zda se správné vyhledá dodavatele v seznamu podle části názvu</t>
+  </si>
+  <si>
+    <t>2.Zadám do okénka řeťezec "je"</t>
+  </si>
+  <si>
+    <t>1.Zobrazení odpovídajících dodavatelů (Nápoje Jelínek)</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Přidání prázdného dodavatele</t>
+  </si>
+  <si>
+    <t>2.Kliknu na "+"</t>
+  </si>
+  <si>
+    <t>3.Kliknu na "+"</t>
+  </si>
+  <si>
+    <t>1. Zobrazení chybové hlášky</t>
+  </si>
+  <si>
+    <t>2. Neuložení dodavatele</t>
+  </si>
+  <si>
+    <t>2.Dvojklikem na "Potraviny goliáš", nebo klinutím a kliknutím na tlačítko "lupa", vyvolám dialog s informacemi</t>
+  </si>
+  <si>
+    <t>1.Neprázdný seznam dodavatelů</t>
+  </si>
+  <si>
+    <t>2.Zadám do okénka písmeno G</t>
   </si>
 </sst>
 </file>
@@ -484,16 +501,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="2" max="2" width="159.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" customWidth="1"/>
   </cols>
@@ -510,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -518,15 +535,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -544,7 +553,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,19 +566,14 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -584,13 +588,13 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="82.28515625" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,56 +615,46 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,7 +676,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +687,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,41 +703,41 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>36</v>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -762,10 +756,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +770,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -784,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,15 +786,163 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="67.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -808,32 +950,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>

--- a/K odevzdání/4. iterace/Testování/Testovací scénář - úprava dodavatelů.xlsx
+++ b/K odevzdání/4. iterace/Testování/Testovací scénář - úprava dodavatelů.xlsx
@@ -144,9 +144,6 @@
     <t>3.Kliknu na "+"</t>
   </si>
   <si>
-    <t>1. Zobrazení chybové hlášky</t>
-  </si>
-  <si>
     <t>2. Neuložení dodavatele</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>2.Zadám do okénka písmeno G</t>
+  </si>
+  <si>
+    <t>1. Zobrazení chybové hlášky - "Dodavatel musí obsahovat jméno" a zčervenání kolonky jména</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,13 +915,13 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="67.85546875" customWidth="1"/>
+    <col min="2" max="2" width="84" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -968,12 +968,12 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
